--- a/sample_xlsx_file/sample.xlsx
+++ b/sample_xlsx_file/sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\FileReadderAPI-Sheetjs-Flask-Template\sample_xlsx_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49239374-3498-4F1D-A33F-7DD7816A9B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9202DF-8E32-4BF6-B8CF-AC4BA9F91885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="顧客リスト" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>顧客ID</t>
     <rPh sb="0" eb="2">
@@ -59,6 +59,13 @@
     <t>金額</t>
     <rPh sb="0" eb="2">
       <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>濱野竜聖</t>
+    <rPh sb="0" eb="4">
+      <t>ハマノリュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -385,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -402,6 +409,17 @@
       </c>
       <c r="C1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
